--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000014</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏聚利债券</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>34.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008547</t>
+          <t>000014</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道安远6个月定期开放混合</t>
+          <t>华夏聚利债券</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.60</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>创金合信鼎诚3个月定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.63</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信鼎诚3个月定期开放混合A</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010101</t>
+          <t>005901</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信鼎诚3个月定期开放混合C</t>
+          <t>诺安汇利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005901</t>
+          <t>008547</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安汇利灵活配置混合A</t>
+          <t>博道安远6个月定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31.06</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>31.06</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>010101</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>创金合信鼎诚3个月定期开放混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.24</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.99</v>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.3</v>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.96</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1976,14 +2041,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.99</v>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1992,14 +2079,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.3</v>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2008,13 +2117,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.36</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.96</v>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2429,14 +2516,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.99</v>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2445,14 +2554,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.3</v>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2461,13 +2592,1019 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>57.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>3.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.96</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.99</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1719,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2155,7 +2380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2781,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2982,100 +3207,6 @@
       </c>
       <c r="H5" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9914</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3150,26 +3281,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.79</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2957</t>
+          <t>1.9914</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3178,6 +3309,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603916-苏博特.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>3.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>4.96</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.99</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,470 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏聚利债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -688,21 +1141,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8522</t>
+          <t>1.9123</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1164,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>004738</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>上投摩根安隆回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.79</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1202,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012628</t>
+          <t>004739</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏大盘精选混合C</t>
+          <t>上投摩根安隆回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1240,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>012628</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>华夏大盘精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.79</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -825,6 +1278,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2380,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3006,7 +3667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3207,100 +3868,6 @@
       </c>
       <c r="H5" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9914</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3375,26 +3942,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.79</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2957</t>
+          <t>1.9914</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3408,53 +3975,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3469,371 +4036,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.82</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0857</t>
+          <t>2.2957</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000014</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏聚利债券</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0702</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0641</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008547</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道安远6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010101</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>